--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/90/Output_3_35.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/90/Output_3_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2201473.675347012</v>
+        <v>2371177.242446904</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14288614.32631046</v>
+        <v>12244790.98632948</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>393801.3664809159</v>
+        <v>393801.3664809163</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6164413.267475865</v>
+        <v>6223331.967579965</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>67.21941446768915</v>
       </c>
       <c r="E2" t="n">
         <v>21.71717045362101</v>
@@ -674,10 +674,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.11631013281968</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C3" t="n">
-        <v>24.76484596498756</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F3" t="n">
-        <v>28.11631013281968</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V3" t="n">
-        <v>28.11631013281968</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="4">
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>28.11631013281968</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>24.76484596498756</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>28.11631013281968</v>
+        <v>106.2428060521353</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>160.5119558107581</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>292.9082206543424</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>87.66495591076759</v>
       </c>
       <c r="E5" t="n">
         <v>21.71717045362101</v>
@@ -908,7 +908,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>292.9082206543424</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>292.9082206543424</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -975,16 +975,16 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C6" t="n">
-        <v>22.72522404526026</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E6" t="n">
         <v>103.6549143897921</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G6" t="n">
         <v>93.11323406457203</v>
@@ -1032,13 +1032,13 @@
         <v>182.9205141195597</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W6" t="n">
         <v>194.556163395115</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y6" t="n">
         <v>138.2959597602405</v>
@@ -1054,7 +1054,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>144.8733842050532</v>
       </c>
       <c r="V7" t="n">
-        <v>216.7238304521856</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>65.99876997414435</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
         <v>21.71717045362101</v>
@@ -1145,13 +1145,13 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>389.8428256478085</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1300,13 +1300,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>34.79484432979901</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>181.2635869532369</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>214.9537337749166</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>68.77571864162746</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>135.7049349459096</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>127.1357026005335</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>129.9982212447115</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>130.0464974647467</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>37.36157859846168</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>12.02032463573506</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>189.5314380831919</v>
+        <v>152.0898487279631</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>28.127845226296</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>68.77571864162746</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.7164064809815</v>
+        <v>180.3658596433072</v>
       </c>
       <c r="C16" t="n">
-        <v>135.7049349459096</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>127.1357026005335</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>129.9982212447115</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>135.5952539392217</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>130.0464974647467</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>107.8104032629636</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>64.22298003316325</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>12.02032463573506</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>217.4850487393869</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>205.5903550446894</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>189.5314380831919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.54790254396256</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.77571864162746</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>10.35204796410535</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>135.7049349459096</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>127.1357026005335</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>129.9982212447115</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>130.0464974647467</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>37.36157859846156</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>12.02032463573506</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>205.5903550446894</v>
+        <v>168.1487656894607</v>
       </c>
       <c r="Y19" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.8896947407046</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>292.1001821828287</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>135.7049349459096</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>127.1357026005335</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>103.1368198100102</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>130.0464974647467</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>64.22298003316325</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>12.02032463573506</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>242.8347014707352</v>
+        <v>205.3931121155066</v>
       </c>
       <c r="V22" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.77571864162746</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>135.7049349459096</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>100.2743011658324</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>129.9982212447115</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>130.0464974647467</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>64.22298003316325</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>12.02032463573506</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>133.885794462093</v>
+        <v>96.44420510686437</v>
       </c>
       <c r="T25" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2716,22 +2716,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>42.9886084245968</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2773,10 +2773,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>96.44420510686417</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3010,7 +3010,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>200.1143878900202</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>379.9752792759751</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>386.9571213141933</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>383.3850932342101</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>386.0425690809814</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>385.1983386198541</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>364.6210704138063</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>259.2150933680659</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.64901981295138</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>183.0417138731736</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>220.0967589369122</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
-        <v>318.2399193523734</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>356.7528348300169</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>371.9281974712906</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>365.6092959720189</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>152.5897076523054</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>134.5782361172335</v>
+        <v>160.1553498542508</v>
       </c>
       <c r="D34" t="n">
-        <v>126.0090037718574</v>
+        <v>151.5861175088747</v>
       </c>
       <c r="E34" t="n">
-        <v>128.8715224160354</v>
+        <v>154.4486361530526</v>
       </c>
       <c r="F34" t="n">
-        <v>134.4685551105456</v>
+        <v>160.0456688475628</v>
       </c>
       <c r="G34" t="n">
-        <v>128.9197986360706</v>
+        <v>154.4969123730878</v>
       </c>
       <c r="H34" t="n">
-        <v>106.6837044342875</v>
+        <v>132.2608181713048</v>
       </c>
       <c r="I34" t="n">
-        <v>63.09628120448666</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>10.89362580705897</v>
+        <v>36.47073954407623</v>
       </c>
       <c r="S34" t="n">
-        <v>132.7590956334169</v>
+        <v>45.43834247280994</v>
       </c>
       <c r="T34" t="n">
-        <v>205.2313529237194</v>
+        <v>230.8084666607367</v>
       </c>
       <c r="U34" t="n">
-        <v>241.7080026420591</v>
+        <v>267.2851163790764</v>
       </c>
       <c r="V34" t="n">
-        <v>243.2197513454118</v>
+        <v>268.796865082429</v>
       </c>
       <c r="W34" t="n">
-        <v>236.4292784165725</v>
+        <v>262.0063921535897</v>
       </c>
       <c r="X34" t="n">
-        <v>204.4636562160133</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>188.4047392545158</v>
+        <v>213.981852991533</v>
       </c>
     </row>
     <row r="35">
@@ -3266,10 +3266,10 @@
         <v>379.9752792759751</v>
       </c>
       <c r="C35" t="n">
-        <v>386.9571213141933</v>
+        <v>386.9571213141932</v>
       </c>
       <c r="D35" t="n">
-        <v>383.3850932342101</v>
+        <v>383.38509323421</v>
       </c>
       <c r="E35" t="n">
         <v>386.0425690809814</v>
@@ -3278,7 +3278,7 @@
         <v>385.1983386198541</v>
       </c>
       <c r="G35" t="n">
-        <v>364.6210704138063</v>
+        <v>364.6210704138062</v>
       </c>
       <c r="H35" t="n">
         <v>259.2150933680659</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>67.64901981295138</v>
+        <v>67.64901981295137</v>
       </c>
       <c r="T35" t="n">
-        <v>183.0417138731736</v>
+        <v>183.0417138731735</v>
       </c>
       <c r="U35" t="n">
-        <v>220.0967589369122</v>
+        <v>220.0967589369114</v>
       </c>
       <c r="V35" t="n">
         <v>318.2399193523734</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>152.5897076523054</v>
+        <v>152.5897076523053</v>
       </c>
       <c r="C37" t="n">
         <v>134.5782361172335</v>
@@ -3430,19 +3430,19 @@
         <v>126.0090037718574</v>
       </c>
       <c r="E37" t="n">
-        <v>128.8715224160354</v>
+        <v>128.8715224160353</v>
       </c>
       <c r="F37" t="n">
-        <v>134.4685551105451</v>
+        <v>134.4685551105455</v>
       </c>
       <c r="G37" t="n">
-        <v>128.9197986360706</v>
+        <v>128.9197986360705</v>
       </c>
       <c r="H37" t="n">
         <v>106.6837044342875</v>
       </c>
       <c r="I37" t="n">
-        <v>63.09628120448717</v>
+        <v>63.09628120448715</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>10.89362580705897</v>
+        <v>10.89362580705895</v>
       </c>
       <c r="S37" t="n">
-        <v>132.7590956334169</v>
+        <v>132.7590956334168</v>
       </c>
       <c r="T37" t="n">
         <v>205.2313529237194</v>
@@ -3481,7 +3481,7 @@
         <v>241.7080026420591</v>
       </c>
       <c r="V37" t="n">
-        <v>243.2197513454118</v>
+        <v>243.2197513454117</v>
       </c>
       <c r="W37" t="n">
         <v>236.4292784165725</v>
@@ -3490,7 +3490,7 @@
         <v>204.4636562160133</v>
       </c>
       <c r="Y37" t="n">
-        <v>188.4047392545158</v>
+        <v>188.4047392545157</v>
       </c>
     </row>
     <row r="38">
@@ -3676,7 +3676,7 @@
         <v>128.9197986360706</v>
       </c>
       <c r="H40" t="n">
-        <v>106.6837044342875</v>
+        <v>106.6837044342871</v>
       </c>
       <c r="I40" t="n">
         <v>63.09628120448717</v>
@@ -3797,7 +3797,7 @@
         <v>220.0967589369122</v>
       </c>
       <c r="V41" t="n">
-        <v>318.2399193523715</v>
+        <v>318.2399193523734</v>
       </c>
       <c r="W41" t="n">
         <v>356.7528348300169</v>
@@ -3904,7 +3904,7 @@
         <v>126.0090037718574</v>
       </c>
       <c r="E43" t="n">
-        <v>128.8715224160354</v>
+        <v>128.8715224160352</v>
       </c>
       <c r="F43" t="n">
         <v>134.4685551105456</v>
@@ -3955,7 +3955,7 @@
         <v>241.7080026420591</v>
       </c>
       <c r="V43" t="n">
-        <v>243.2197513454116</v>
+        <v>243.2197513454118</v>
       </c>
       <c r="W43" t="n">
         <v>236.4292784165725</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87.68081948359844</v>
+        <v>912.1362560927406</v>
       </c>
       <c r="C2" t="n">
-        <v>64.82049353730262</v>
+        <v>485.2355261060407</v>
       </c>
       <c r="D2" t="n">
-        <v>45.56827676270697</v>
+        <v>417.3371276538294</v>
       </c>
       <c r="E2" t="n">
-        <v>23.63174095096858</v>
+        <v>395.400591842091</v>
       </c>
       <c r="F2" t="n">
-        <v>2.547963180772882</v>
+        <v>374.3168140718954</v>
       </c>
       <c r="G2" t="n">
-        <v>2.249304810625574</v>
+        <v>374.018155701748</v>
       </c>
       <c r="H2" t="n">
-        <v>2.249304810625574</v>
+        <v>76.14977717578287</v>
       </c>
       <c r="I2" t="n">
-        <v>2.249304810625574</v>
+        <v>41.25290591925409</v>
       </c>
       <c r="J2" t="n">
-        <v>2.249304810625575</v>
+        <v>403.8563647361496</v>
       </c>
       <c r="K2" t="n">
-        <v>30.08445184211706</v>
+        <v>467.9940600750802</v>
       </c>
       <c r="L2" t="n">
-        <v>56.79494646829576</v>
+        <v>978.4987708258495</v>
       </c>
       <c r="M2" t="n">
-        <v>56.79494646829576</v>
+        <v>978.4987708258495</v>
       </c>
       <c r="N2" t="n">
-        <v>56.79494646829576</v>
+        <v>978.4987708258495</v>
       </c>
       <c r="O2" t="n">
-        <v>56.79494646829576</v>
+        <v>1489.003481576619</v>
       </c>
       <c r="P2" t="n">
-        <v>84.63009349978725</v>
+        <v>1489.003481576619</v>
       </c>
       <c r="Q2" t="n">
-        <v>112.4652405312787</v>
+        <v>1945.088961080802</v>
       </c>
       <c r="R2" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.645295962704</v>
       </c>
       <c r="S2" t="n">
-        <v>112.4652405312787</v>
+        <v>1958.278001835845</v>
       </c>
       <c r="T2" t="n">
-        <v>112.4652405312787</v>
+        <v>1737.352430880478</v>
       </c>
       <c r="U2" t="n">
-        <v>112.4652405312787</v>
+        <v>1737.352430880478</v>
       </c>
       <c r="V2" t="n">
-        <v>112.4652405312787</v>
+        <v>1737.352430880478</v>
       </c>
       <c r="W2" t="n">
-        <v>112.4652405312787</v>
+        <v>1340.961081180825</v>
       </c>
       <c r="X2" t="n">
-        <v>104.78564573943</v>
+        <v>929.2410823485723</v>
       </c>
       <c r="Y2" t="n">
-        <v>103.4887797347244</v>
+        <v>927.9442163438666</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55.66461400032987</v>
+        <v>608.3763969507094</v>
       </c>
       <c r="C3" t="n">
-        <v>30.6496180761</v>
+        <v>490.8704934682141</v>
       </c>
       <c r="D3" t="n">
-        <v>30.6496180761</v>
+        <v>387.0305349834991</v>
       </c>
       <c r="E3" t="n">
-        <v>30.6496180761</v>
+        <v>282.3286012564363</v>
       </c>
       <c r="F3" t="n">
-        <v>2.249304810625575</v>
+        <v>188.6827709393405</v>
       </c>
       <c r="G3" t="n">
-        <v>2.249304810625575</v>
+        <v>94.6289991569445</v>
       </c>
       <c r="H3" t="n">
-        <v>2.249304810625575</v>
+        <v>41.25290591925409</v>
       </c>
       <c r="I3" t="n">
-        <v>2.249304810625575</v>
+        <v>46.7289149678648</v>
       </c>
       <c r="J3" t="n">
-        <v>2.249304810625575</v>
+        <v>318.4264042474559</v>
       </c>
       <c r="K3" t="n">
-        <v>2.249304810625575</v>
+        <v>318.4264042474559</v>
       </c>
       <c r="L3" t="n">
-        <v>2.249304810625575</v>
+        <v>828.9311149982252</v>
       </c>
       <c r="M3" t="n">
-        <v>30.08445184211706</v>
+        <v>1339.435825748995</v>
       </c>
       <c r="N3" t="n">
-        <v>30.08445184211706</v>
+        <v>1849.940536499764</v>
       </c>
       <c r="O3" t="n">
-        <v>57.91959887360855</v>
+        <v>1849.940536499764</v>
       </c>
       <c r="P3" t="n">
-        <v>84.63009349978725</v>
+        <v>1849.940536499764</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.63009349978725</v>
+        <v>1849.940536499764</v>
       </c>
       <c r="R3" t="n">
-        <v>112.4652405312787</v>
+        <v>1849.940536499764</v>
       </c>
       <c r="S3" t="n">
-        <v>112.4652405312787</v>
+        <v>1768.616289061019</v>
       </c>
       <c r="T3" t="n">
-        <v>112.4652405312787</v>
+        <v>1626.736353358697</v>
       </c>
       <c r="U3" t="n">
-        <v>112.4652405312787</v>
+        <v>1441.968157278333</v>
       </c>
       <c r="V3" t="n">
-        <v>84.0649272658043</v>
+        <v>1236.9950184176</v>
       </c>
       <c r="W3" t="n">
-        <v>84.0649272658043</v>
+        <v>1040.473641250817</v>
       </c>
       <c r="X3" t="n">
-        <v>84.0649272658043</v>
+        <v>876.9962950174797</v>
       </c>
       <c r="Y3" t="n">
-        <v>84.0649272658043</v>
+        <v>737.3034063707721</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>84.0649272658043</v>
+        <v>686.5467162525595</v>
       </c>
       <c r="C4" t="n">
-        <v>55.66461400032987</v>
+        <v>514.5741531314754</v>
       </c>
       <c r="D4" t="n">
-        <v>55.66461400032987</v>
+        <v>351.2573802582461</v>
       </c>
       <c r="E4" t="n">
-        <v>55.66461400032987</v>
+        <v>185.0491744110997</v>
       </c>
       <c r="F4" t="n">
-        <v>30.6496180761</v>
+        <v>185.0491744110997</v>
       </c>
       <c r="G4" t="n">
-        <v>2.249304810625575</v>
+        <v>185.0491744110997</v>
       </c>
       <c r="H4" t="n">
-        <v>2.249304810625575</v>
+        <v>41.25290591925409</v>
       </c>
       <c r="I4" t="n">
-        <v>2.249304810625575</v>
+        <v>41.25290591925409</v>
       </c>
       <c r="J4" t="n">
-        <v>2.249304810625575</v>
+        <v>41.25290591925409</v>
       </c>
       <c r="K4" t="n">
-        <v>30.08445184211706</v>
+        <v>267.7805071250913</v>
       </c>
       <c r="L4" t="n">
-        <v>56.79494646829576</v>
+        <v>622.4698284195121</v>
       </c>
       <c r="M4" t="n">
-        <v>56.79494646829576</v>
+        <v>1013.655623389763</v>
       </c>
       <c r="N4" t="n">
-        <v>84.63009349978725</v>
+        <v>1391.147134265799</v>
       </c>
       <c r="O4" t="n">
-        <v>112.4652405312787</v>
+        <v>1645.045953800041</v>
       </c>
       <c r="P4" t="n">
-        <v>112.4652405312787</v>
+        <v>1935.645165721942</v>
       </c>
       <c r="Q4" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.645295962704</v>
       </c>
       <c r="R4" t="n">
-        <v>112.4652405312787</v>
+        <v>2015.606682649878</v>
       </c>
       <c r="S4" t="n">
-        <v>112.4652405312787</v>
+        <v>2015.606682649878</v>
       </c>
       <c r="T4" t="n">
-        <v>112.4652405312787</v>
+        <v>1772.267334875778</v>
       </c>
       <c r="U4" t="n">
-        <v>112.4652405312787</v>
+        <v>1492.082886376082</v>
       </c>
       <c r="V4" t="n">
-        <v>112.4652405312787</v>
+        <v>1210.371418984111</v>
       </c>
       <c r="W4" t="n">
-        <v>84.0649272658043</v>
+        <v>1103.055453274883</v>
       </c>
       <c r="X4" t="n">
-        <v>84.0649272658043</v>
+        <v>1103.055453274883</v>
       </c>
       <c r="Y4" t="n">
-        <v>84.0649272658043</v>
+        <v>876.7126849646252</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>712.3358383650875</v>
+        <v>234.1248547200804</v>
       </c>
       <c r="C5" t="n">
-        <v>416.4689488152467</v>
+        <v>211.2645287737846</v>
       </c>
       <c r="D5" t="n">
-        <v>397.216732040651</v>
+        <v>122.7140682578577</v>
       </c>
       <c r="E5" t="n">
-        <v>375.2801962289126</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F5" t="n">
-        <v>354.1964184587169</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G5" t="n">
-        <v>58.32952890887618</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>58.32952890887618</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>23.43265765234739</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>313.4117961001464</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>603.3909345479453</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>881.6537441695705</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M5" t="n">
-        <v>881.6537441695705</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N5" t="n">
-        <v>1171.632882617369</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O5" t="n">
-        <v>1171.632882617369</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P5" t="n">
-        <v>1171.632882617369</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
-        <v>1171.632882617369</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>1171.632882617369</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1171.632882617369</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1171.632882617369</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1171.632882617369</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>1171.632882617369</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="W5" t="n">
-        <v>1171.632882617369</v>
+        <v>1471.030487888973</v>
       </c>
       <c r="X5" t="n">
-        <v>875.7659930675286</v>
+        <v>1059.31048905672</v>
       </c>
       <c r="Y5" t="n">
-        <v>874.469127062823</v>
+        <v>653.9732190116105</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>298.5192281623857</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>275.5644563994966</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>275.5644563994966</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>170.8625226724338</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>170.8625226724338</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>76.8087508900378</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>23.43265765234739</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>23.43265765234739</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>295.1301469319385</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>295.1301469319385</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L6" t="n">
-        <v>509.6552956370683</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M6" t="n">
-        <v>509.6552956370683</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N6" t="n">
-        <v>509.6552956370683</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O6" t="n">
-        <v>509.6552956370683</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P6" t="n">
-        <v>799.6344340848673</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1089.613572532666</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
-        <v>1171.632882617369</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1090.308635178624</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>948.4286994763022</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>763.6605033959389</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>763.6605033959389</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>567.1391262291561</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>567.1391262291561</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>427.4462375824485</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>519.214606078491</v>
+        <v>645.7643351504313</v>
       </c>
       <c r="C7" t="n">
-        <v>519.214606078491</v>
+        <v>473.7917720293473</v>
       </c>
       <c r="D7" t="n">
-        <v>355.8978332052617</v>
+        <v>310.474999156118</v>
       </c>
       <c r="E7" t="n">
-        <v>189.6896273581152</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="F7" t="n">
-        <v>189.6896273581152</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G7" t="n">
-        <v>23.43265765234739</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H7" t="n">
-        <v>23.43265765234739</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>23.43265765234739</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>80.92398587650541</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>80.92398587650541</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>80.92398587650541</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>174.6953370332105</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>464.6744754810095</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>754.6536139288085</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>1044.632752376607</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>1171.632882617369</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>1171.632882617369</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>1171.632882617369</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>928.2935348432694</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="U7" t="n">
-        <v>928.2935348432694</v>
+        <v>1861.400839946408</v>
       </c>
       <c r="V7" t="n">
-        <v>709.3805747905567</v>
+        <v>1579.689372554437</v>
       </c>
       <c r="W7" t="n">
-        <v>709.3805747905567</v>
+        <v>1304.83696872695</v>
       </c>
       <c r="X7" t="n">
-        <v>709.3805747905567</v>
+        <v>1062.273072172755</v>
       </c>
       <c r="Y7" t="n">
-        <v>709.3805747905567</v>
+        <v>835.9303038624969</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>608.6939898724443</v>
+        <v>1225.320495885926</v>
       </c>
       <c r="C8" t="n">
-        <v>181.7932598857444</v>
+        <v>798.4197658992259</v>
       </c>
       <c r="D8" t="n">
-        <v>115.1278356694369</v>
+        <v>779.1675491246302</v>
       </c>
       <c r="E8" t="n">
-        <v>93.19129985769854</v>
+        <v>757.2310133128918</v>
       </c>
       <c r="F8" t="n">
-        <v>72.10752208750284</v>
+        <v>736.1472355426961</v>
       </c>
       <c r="G8" t="n">
-        <v>71.80886371735554</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H8" t="n">
-        <v>71.80886371735554</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>358.3859952497895</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>815.1719019525203</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>1271.957808655251</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M8" t="n">
-        <v>1271.957808655251</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N8" t="n">
-        <v>1271.957808655251</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O8" t="n">
-        <v>1271.957808655251</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P8" t="n">
-        <v>1271.957808655251</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q8" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1845.599623041337</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U8" t="n">
-        <v>1845.599623041337</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V8" t="n">
-        <v>1845.599623041337</v>
+        <v>1646.496266633259</v>
       </c>
       <c r="W8" t="n">
-        <v>1845.599623041337</v>
+        <v>1250.104916933606</v>
       </c>
       <c r="X8" t="n">
-        <v>1433.879624209084</v>
+        <v>1242.425322141757</v>
       </c>
       <c r="Y8" t="n">
-        <v>1028.542354163974</v>
+        <v>1241.128456137052</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>36.9119924608267</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>36.9119924608267</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="L9" t="n">
-        <v>36.9119924608267</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="M9" t="n">
-        <v>493.6978991635576</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="N9" t="n">
-        <v>493.6978991635576</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O9" t="n">
-        <v>950.4838058662884</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P9" t="n">
-        <v>1407.269712569019</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>1763.580312956634</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>911.6745856373313</v>
+        <v>545.9957668907073</v>
       </c>
       <c r="C10" t="n">
-        <v>739.7020225162473</v>
+        <v>374.0232037696233</v>
       </c>
       <c r="D10" t="n">
-        <v>576.385249643018</v>
+        <v>210.706430896394</v>
       </c>
       <c r="E10" t="n">
-        <v>410.1770437958716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F10" t="n">
-        <v>238.315269570432</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G10" t="n">
-        <v>72.05829986466412</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>1066.806038155494</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1444.297549031529</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1718.599492800575</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T10" t="n">
-        <v>1845.599623041337</v>
+        <v>2041.81672018638</v>
       </c>
       <c r="U10" t="n">
-        <v>1845.599623041337</v>
+        <v>1761.632271686684</v>
       </c>
       <c r="V10" t="n">
-        <v>1845.599623041337</v>
+        <v>1479.920804294713</v>
       </c>
       <c r="W10" t="n">
-        <v>1570.74721921385</v>
+        <v>1205.068400467226</v>
       </c>
       <c r="X10" t="n">
-        <v>1328.183322659655</v>
+        <v>962.5045039130309</v>
       </c>
       <c r="Y10" t="n">
-        <v>1101.840554349397</v>
+        <v>736.161735602773</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2104.438990741571</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C11" t="n">
-        <v>1712.4351320114</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D11" t="n">
-        <v>1324.039382452929</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>1106.914398841902</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F11" t="n">
-        <v>716.6870882878311</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G11" t="n">
-        <v>347.2448971338085</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>84.27338986437226</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>84.27338986437226</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>446.8768486812678</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K11" t="n">
-        <v>1162.385156656767</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>2092.010204276044</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>3096.296305695102</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N11" t="n">
-        <v>3096.296305695102</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O11" t="n">
-        <v>3505.390214060685</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P11" t="n">
-        <v>4213.669493218613</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q11" t="n">
-        <v>4213.669493218613</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R11" t="n">
-        <v>4213.669493218613</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S11" t="n">
-        <v>4144.199070348282</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T11" t="n">
-        <v>4144.199070348282</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
-        <v>3920.741032201224</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V11" t="n">
-        <v>3598.148488584002</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W11" t="n">
-        <v>3236.654010140877</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X11" t="n">
-        <v>2859.830882565153</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>2489.390483776572</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>651.3968808958275</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>533.8909774133323</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>430.0510189286173</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>325.3490852015545</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>231.7032548844587</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>137.6494831020627</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H12" t="n">
-        <v>84.27338986437226</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>84.27338986437226</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J12" t="n">
-        <v>84.27338986437226</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="K12" t="n">
-        <v>84.27338986437226</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="L12" t="n">
-        <v>921.0721979472784</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="M12" t="n">
-        <v>921.0721979472784</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="N12" t="n">
-        <v>921.0721979472784</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O12" t="n">
-        <v>1346.796233497399</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P12" t="n">
-        <v>1346.796233497399</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1810.941710360179</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1811.636773006137</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1669.756837303815</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1484.988641223451</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1280.015502362718</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1083.494125195935</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>920.0167789625979</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>780.3238903158903</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>896.0436848709867</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C13" t="n">
-        <v>758.9679930064315</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D13" t="n">
-        <v>630.548091389731</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E13" t="n">
-        <v>499.2367567991133</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F13" t="n">
-        <v>362.2718538302025</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G13" t="n">
-        <v>230.9117553809635</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H13" t="n">
-        <v>122.0123581456467</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
-        <v>84.27338986437226</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>175.9671416070542</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>436.6971663314152</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
-        <v>825.5889111443599</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1250.977129633135</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1662.671064027694</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>2052.301616225981</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2377.103251666406</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2538.305805425692</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2526.164063369394</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2390.925887145057</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T13" t="n">
-        <v>2182.483410627486</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U13" t="n">
-        <v>1937.195833384319</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V13" t="n">
-        <v>1690.381237248877</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W13" t="n">
-        <v>1450.425704677919</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X13" t="n">
-        <v>1242.758679380253</v>
+        <v>789.9291292906432</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.312782326524</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1918.410291042734</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C14" t="n">
-        <v>1526.406432312563</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D14" t="n">
-        <v>1497.994467437516</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>1106.914398841902</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>716.6870882878311</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>347.2448971338085</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>84.27338986437226</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>84.27338986437226</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>84.27338986437226</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K14" t="n">
-        <v>84.27338986437226</v>
+        <v>1054.158777558265</v>
       </c>
       <c r="L14" t="n">
-        <v>1013.898437483649</v>
+        <v>1983.783825177542</v>
       </c>
       <c r="M14" t="n">
-        <v>1110.352691037087</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="N14" t="n">
-        <v>2086.603749523787</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="O14" t="n">
-        <v>2931.7483996746</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P14" t="n">
-        <v>3640.027678832527</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q14" t="n">
-        <v>4096.113158336711</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R14" t="n">
-        <v>4213.669493218613</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S14" t="n">
-        <v>4144.199070348282</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T14" t="n">
-        <v>3958.170370649445</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
-        <v>3734.712332502386</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3412.119788885164</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>3050.62531044204</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>2673.802182866316</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>2303.361784077735</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>651.3968808958275</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>533.8909774133323</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>430.0510189286173</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>325.3490852015545</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>231.7032548844587</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>137.6494831020627</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H15" t="n">
-        <v>84.27338986437226</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>84.27338986437226</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J15" t="n">
-        <v>355.9708791439633</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>946.4558057123029</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L15" t="n">
-        <v>946.4558057123029</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M15" t="n">
-        <v>946.4558057123029</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N15" t="n">
-        <v>946.4558057123029</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O15" t="n">
-        <v>946.4558057123029</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P15" t="n">
-        <v>1428.815543582103</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1811.636773006137</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1669.756837303815</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1484.988641223451</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1280.015502362718</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1083.494125195935</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>920.0167789625979</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>780.3238903158903</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>923.1764135929074</v>
+        <v>850.3052888313966</v>
       </c>
       <c r="C16" t="n">
-        <v>786.1007217283521</v>
+        <v>678.3327257103125</v>
       </c>
       <c r="D16" t="n">
-        <v>657.6808201116517</v>
+        <v>678.3327257103125</v>
       </c>
       <c r="E16" t="n">
-        <v>526.369485521034</v>
+        <v>512.124519863166</v>
       </c>
       <c r="F16" t="n">
-        <v>389.4045825521233</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G16" t="n">
-        <v>258.0444841028842</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H16" t="n">
-        <v>149.1450868675674</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="I16" t="n">
-        <v>84.27338986437226</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>175.9671416070541</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>436.6971663314151</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L16" t="n">
-        <v>825.5889111443598</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1250.977129633135</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1662.671064027694</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>2052.301616225981</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2377.103251666406</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2538.305805425692</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2526.164063369394</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2390.925887145058</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T16" t="n">
-        <v>2182.483410627487</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U16" t="n">
-        <v>1937.195833384319</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V16" t="n">
-        <v>1717.513965970797</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W16" t="n">
-        <v>1477.558433399839</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X16" t="n">
-        <v>1269.891408102173</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="Y16" t="n">
-        <v>1078.445511048444</v>
+        <v>1032.493025844838</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2278.394075726158</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>1886.390216995987</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
-        <v>1497.994467437516</v>
+        <v>1690.508147261615</v>
       </c>
       <c r="E17" t="n">
-        <v>1106.914398841902</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F17" t="n">
-        <v>716.6870882878312</v>
+        <v>839.4070255988729</v>
       </c>
       <c r="G17" t="n">
-        <v>347.2448971338086</v>
+        <v>435.0679631883215</v>
       </c>
       <c r="H17" t="n">
-        <v>84.27338986437226</v>
+        <v>137.1995846623564</v>
       </c>
       <c r="I17" t="n">
-        <v>84.27338986437226</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>446.8768486812678</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>1162.385156656767</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>2092.010204276044</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2660.245563909873</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>2660.245563909873</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="O17" t="n">
-        <v>3505.390214060685</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P17" t="n">
-        <v>4213.669493218613</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q17" t="n">
-        <v>4213.669493218613</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R17" t="n">
-        <v>4213.669493218613</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S17" t="n">
-        <v>4144.199070348282</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T17" t="n">
-        <v>3958.170370649445</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
-        <v>3734.712332502386</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V17" t="n">
-        <v>3412.119788885164</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W17" t="n">
-        <v>3050.62531044204</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X17" t="n">
-        <v>2673.802182866316</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2663.345568761159</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>651.3968808958275</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C18" t="n">
-        <v>533.8909774133323</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D18" t="n">
-        <v>430.0510189286173</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E18" t="n">
-        <v>325.3490852015545</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>231.7032548844587</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>137.6494831020627</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H18" t="n">
-        <v>84.27338986437226</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>84.27338986437226</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J18" t="n">
-        <v>355.9708791439633</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>946.4558057123029</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="L18" t="n">
-        <v>946.4558057123029</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M18" t="n">
-        <v>946.4558057123029</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N18" t="n">
-        <v>946.4558057123029</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>946.4558057123029</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
-        <v>1428.815543582103</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>1811.636773006137</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>1669.756837303815</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>1484.988641223451</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>1280.015502362718</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>1083.494125195935</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>920.0167789625979</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y18" t="n">
-        <v>780.3238903158903</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>896.0436848709869</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>758.9679930064317</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>630.5480913897312</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>499.2367567991136</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>362.2718538302028</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>230.9117553809638</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>122.0123581456469</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
-        <v>84.27338986437226</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>175.9671416070542</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>436.6971663314152</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
-        <v>825.5889111443599</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>1250.977129633135</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>1662.671064027694</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>2052.301616225981</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2377.103251666406</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2538.305805425692</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2526.164063369394</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2390.925887145058</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>2182.483410627487</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>1937.195833384319</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>1690.381237248877</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W19" t="n">
-        <v>1450.425704677919</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X19" t="n">
-        <v>1242.758679380253</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.312782326524</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2015.422568456721</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>1623.41870972655</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
-        <v>1235.022960168079</v>
+        <v>1690.508147261615</v>
       </c>
       <c r="E20" t="n">
-        <v>843.9428915724658</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F20" t="n">
-        <v>453.7155810183948</v>
+        <v>839.4070255988729</v>
       </c>
       <c r="G20" t="n">
-        <v>84.27338986437226</v>
+        <v>435.0679631883215</v>
       </c>
       <c r="H20" t="n">
-        <v>84.27338986437226</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
-        <v>84.27338986437226</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>446.8768486812678</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
-        <v>1162.385156656767</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>2092.010204276044</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2204.16008440569</v>
+        <v>2129.375202991801</v>
       </c>
       <c r="N20" t="n">
-        <v>2204.16008440569</v>
+        <v>3105.626261478502</v>
       </c>
       <c r="O20" t="n">
-        <v>3049.304734556502</v>
+        <v>3950.770911629314</v>
       </c>
       <c r="P20" t="n">
-        <v>3757.58401371443</v>
+        <v>4659.050190787242</v>
       </c>
       <c r="Q20" t="n">
-        <v>4213.669493218613</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R20" t="n">
-        <v>4213.669493218613</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S20" t="n">
-        <v>4213.669493218613</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T20" t="n">
-        <v>4027.640793519775</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
-        <v>3804.182755372716</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V20" t="n">
-        <v>3509.132066299151</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W20" t="n">
-        <v>3147.637587856027</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X20" t="n">
-        <v>2770.814460280303</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2400.374061491722</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>651.3968808958275</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C21" t="n">
-        <v>533.8909774133323</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D21" t="n">
-        <v>430.0510189286173</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E21" t="n">
-        <v>325.3490852015545</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F21" t="n">
-        <v>231.7032548844587</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>137.6494831020627</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H21" t="n">
-        <v>84.27338986437226</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>91.7200328262841</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>363.4175221058752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>953.9024486742147</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>1790.701256757121</v>
+        <v>105.4776804749704</v>
       </c>
       <c r="M21" t="n">
-        <v>1892.961020444882</v>
+        <v>105.4776804749704</v>
       </c>
       <c r="N21" t="n">
-        <v>1892.961020444882</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O21" t="n">
-        <v>1892.961020444882</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P21" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S21" t="n">
-        <v>1811.636773006137</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T21" t="n">
-        <v>1669.756837303815</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U21" t="n">
-        <v>1484.988641223451</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V21" t="n">
-        <v>1280.015502362718</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W21" t="n">
-        <v>1083.494125195935</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X21" t="n">
-        <v>920.0167789625979</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y21" t="n">
-        <v>780.3238903158903</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>896.043684870987</v>
+        <v>446.137050752352</v>
       </c>
       <c r="C22" t="n">
-        <v>758.9679930064318</v>
+        <v>274.164487631268</v>
       </c>
       <c r="D22" t="n">
-        <v>630.5480913897313</v>
+        <v>274.164487631268</v>
       </c>
       <c r="E22" t="n">
-        <v>526.3694855210341</v>
+        <v>274.164487631268</v>
       </c>
       <c r="F22" t="n">
-        <v>389.4045825521233</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>258.0444841028843</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>149.1450868675675</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>84.27338986437226</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>175.9671416070541</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>436.6971663314151</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
-        <v>825.5889111443598</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>1250.977129633135</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>1662.671064027694</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>2052.301616225981</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>2377.103251666406</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>2538.305805425692</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2526.164063369394</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2390.925887145057</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>2182.483410627486</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>1937.195833384319</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1690.381237248877</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>1450.425704677919</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>1242.758679380253</v>
+        <v>862.6457877746756</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.312782326524</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2285.74068357684</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>1893.736824846669</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
-        <v>1505.341075288198</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E23" t="n">
-        <v>1114.261006692584</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>724.0336961385133</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>354.5915049844907</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>91.61999771505438</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
-        <v>91.61999771505438</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>454.2234565319499</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>1169.731764507449</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>2099.356812126726</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2099.356812126726</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="N23" t="n">
-        <v>2453.934142057893</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O23" t="n">
-        <v>3299.078792208706</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P23" t="n">
-        <v>4007.358071366633</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q23" t="n">
-        <v>4463.443550870817</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
-        <v>4580.999885752719</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>4511.529462882389</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4325.500763183551</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
-        <v>4102.042725036492</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V23" t="n">
-        <v>3779.45018141927</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W23" t="n">
-        <v>3417.955702976146</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X23" t="n">
-        <v>3041.132575400422</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y23" t="n">
-        <v>2670.692176611841</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>658.7434887465096</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>541.2375852640143</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>437.3976267792994</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>332.6956930522366</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>239.0498627351408</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>144.9960909527448</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>91.61999771505438</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>91.61999771505438</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>91.61999771505438</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>91.61999771505438</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>928.4188057979605</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>928.4188057979605</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N24" t="n">
-        <v>1900.307628295564</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O24" t="n">
-        <v>1900.307628295564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>1900.307628295564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
-        <v>1900.307628295564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
-        <v>1900.307628295564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>1818.983380856819</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>1677.103445154497</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>1492.335249074134</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>1287.3621102134</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>1090.840733046617</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>927.3633868132799</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>787.6704981665723</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>903.3902927216692</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>766.314600857114</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>665.0274279623338</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>533.7160933717162</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>396.7511904028054</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G25" t="n">
-        <v>265.3910919535664</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H25" t="n">
-        <v>156.4916947182496</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I25" t="n">
-        <v>91.61999771505438</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J25" t="n">
-        <v>183.3137494577363</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>444.0437741820974</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>832.9355189950421</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>1258.323737483817</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>1670.017671878376</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>2059.648224076663</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>2384.449859517088</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>2545.652413276374</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2533.510671220076</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2398.27249499574</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>2189.830018478168</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>1944.542441235001</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1697.727845099559</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1457.772312528601</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>1250.105287230935</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>1058.659390177206</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6227,25 +6227,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>1180.414480198223</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L26" t="n">
-        <v>2110.0395278175</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M26" t="n">
-        <v>2110.0395278175</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6300,22 +6300,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>971.931772215671</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>1808.730580298577</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O27" t="n">
         <v>1910.990343986338</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>890.8366926500015</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>718.8641295289175</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>555.5473566556882</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>555.5473566556882</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058286</v>
@@ -6409,25 +6409,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822125</v>
       </c>
       <c r="T28" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048025</v>
       </c>
       <c r="U28" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1307.345429672325</v>
+        <v>1105.209684328871</v>
       </c>
       <c r="X28" t="n">
-        <v>1307.345429672325</v>
+        <v>862.6457877746758</v>
       </c>
       <c r="Y28" t="n">
-        <v>1081.002661362067</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6464,25 +6464,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L29" t="n">
-        <v>2110.0395278175</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M29" t="n">
-        <v>2988.069926596602</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N29" t="n">
-        <v>2988.069926596602</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6546,22 +6546,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M30" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N30" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="O30" t="n">
-        <v>648.6278400003578</v>
+        <v>1828.582799500206</v>
       </c>
       <c r="P30" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q30" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6607,22 +6607,22 @@
         <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
         <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6646,22 +6646,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2185.297351822124</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>1941.958004048024</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>1661.773555548329</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>1380.062088156358</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W31" t="n">
-        <v>1105.20968432887</v>
+        <v>1105.209684328871</v>
       </c>
       <c r="X31" t="n">
-        <v>862.6457877746757</v>
+        <v>862.6457877746758</v>
       </c>
       <c r="Y31" t="n">
         <v>636.3030194644177</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2278.587040220167</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>1887.721261114921</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
-        <v>1500.463591181375</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E32" t="n">
-        <v>1110.521602210687</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>721.4323712815417</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>353.1282597524439</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>91.29483210793288</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>453.8982909248284</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>1169.406598900327</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>2099.031646519604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2099.031646519604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N32" t="n">
-        <v>2437.675861701818</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>3282.82051185263</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>3991.099791010558</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>4447.185270514741</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
-        <v>4564.741605396644</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>4496.409262151238</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4311.518642077325</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
-        <v>4089.198683555192</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V32" t="n">
-        <v>3767.744219562896</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W32" t="n">
-        <v>3407.387820744697</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X32" t="n">
-        <v>3031.702772793898</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y32" t="n">
-        <v>2662.400453630243</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>658.4183231393881</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C33" t="n">
-        <v>540.9124196568929</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D33" t="n">
-        <v>437.0724611721779</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E33" t="n">
-        <v>332.3705274451151</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F33" t="n">
-        <v>238.7246971280193</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G33" t="n">
-        <v>144.6709253456233</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H33" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>98.74147506984471</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>370.4389643494358</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>960.9238909177753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>1797.722699000682</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M33" t="n">
-        <v>1899.982462688443</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N33" t="n">
-        <v>1899.982462688443</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O33" t="n">
-        <v>1899.982462688443</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P33" t="n">
-        <v>1899.982462688443</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q33" t="n">
-        <v>1899.982462688443</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R33" t="n">
-        <v>1899.982462688443</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S33" t="n">
-        <v>1818.658215249697</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T33" t="n">
-        <v>1676.778279547375</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U33" t="n">
-        <v>1492.010083467012</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V33" t="n">
-        <v>1287.036944606278</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W33" t="n">
-        <v>1090.515567439495</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X33" t="n">
-        <v>927.0382212061585</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y33" t="n">
-        <v>787.3453325594509</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>922.23129846199</v>
+        <v>1024.518372908994</v>
       </c>
       <c r="C34" t="n">
-        <v>786.2936862223603</v>
+        <v>862.7452922481343</v>
       </c>
       <c r="D34" t="n">
-        <v>659.0118642305852</v>
+        <v>709.6280018351297</v>
       </c>
       <c r="E34" t="n">
-        <v>528.8386092648929</v>
+        <v>553.6192784482079</v>
       </c>
       <c r="F34" t="n">
-        <v>393.0117859209074</v>
+        <v>391.9569866829928</v>
       </c>
       <c r="G34" t="n">
-        <v>262.7897670965937</v>
+        <v>235.8994994374495</v>
       </c>
       <c r="H34" t="n">
-        <v>155.0284494862022</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I34" t="n">
-        <v>91.29483210793286</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J34" t="n">
-        <v>184.104015691004</v>
+        <v>169.7905543892527</v>
       </c>
       <c r="K34" t="n">
-        <v>445.9494722557544</v>
+        <v>406.314668354356</v>
       </c>
       <c r="L34" t="n">
-        <v>835.9566489090882</v>
+        <v>771.0005024080428</v>
       </c>
       <c r="M34" t="n">
-        <v>1262.460299238252</v>
+        <v>1172.18281013756</v>
       </c>
       <c r="N34" t="n">
-        <v>1675.269665473201</v>
+        <v>1559.670833772862</v>
       </c>
       <c r="O34" t="n">
-        <v>2066.015649511877</v>
+        <v>1925.095475211891</v>
       </c>
       <c r="P34" t="n">
-        <v>2391.932716792691</v>
+        <v>2225.691199893058</v>
       </c>
       <c r="Q34" t="n">
-        <v>2554.250702392366</v>
+        <v>2362.687842893086</v>
       </c>
       <c r="R34" t="n">
-        <v>2543.247039960993</v>
+        <v>2325.848712040484</v>
       </c>
       <c r="S34" t="n">
-        <v>2409.146943361583</v>
+        <v>2279.951396411383</v>
       </c>
       <c r="T34" t="n">
-        <v>2201.842546468937</v>
+        <v>2046.811531097507</v>
       </c>
       <c r="U34" t="n">
-        <v>1957.693048850695</v>
+        <v>1776.826565058036</v>
       </c>
       <c r="V34" t="n">
-        <v>1712.016532340178</v>
+        <v>1505.314580126289</v>
       </c>
       <c r="W34" t="n">
-        <v>1473.199079394146</v>
+        <v>1240.661658759027</v>
       </c>
       <c r="X34" t="n">
-        <v>1266.670133721405</v>
+        <v>1240.661658759027</v>
       </c>
       <c r="Y34" t="n">
-        <v>1076.362316292601</v>
+        <v>1024.518372908994</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2278.587040220167</v>
+        <v>2278.587040220166</v>
       </c>
       <c r="C35" t="n">
-        <v>1887.721261114921</v>
+        <v>1887.72126111492</v>
       </c>
       <c r="D35" t="n">
         <v>1500.463591181375</v>
@@ -6923,16 +6923,16 @@
         <v>1110.521602210687</v>
       </c>
       <c r="F35" t="n">
-        <v>721.4323712815417</v>
+        <v>721.432371281541</v>
       </c>
       <c r="G35" t="n">
         <v>353.1282597524439</v>
       </c>
       <c r="H35" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="I35" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J35" t="n">
         <v>453.8982909248284</v>
@@ -6944,43 +6944,43 @@
         <v>2099.031646519604</v>
       </c>
       <c r="M35" t="n">
-        <v>2437.675861701818</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="N35" t="n">
-        <v>2437.675861701818</v>
+        <v>2437.675861701817</v>
       </c>
       <c r="O35" t="n">
-        <v>3282.82051185263</v>
+        <v>3282.820511852629</v>
       </c>
       <c r="P35" t="n">
-        <v>3991.099791010558</v>
+        <v>3991.099791010557</v>
       </c>
       <c r="Q35" t="n">
-        <v>4447.185270514741</v>
+        <v>4447.18527051474</v>
       </c>
       <c r="R35" t="n">
-        <v>4564.741605396644</v>
+        <v>4564.741605396643</v>
       </c>
       <c r="S35" t="n">
-        <v>4496.409262151238</v>
+        <v>4496.409262151237</v>
       </c>
       <c r="T35" t="n">
-        <v>4311.518642077326</v>
+        <v>4311.518642077324</v>
       </c>
       <c r="U35" t="n">
         <v>4089.198683555192</v>
       </c>
       <c r="V35" t="n">
-        <v>3767.744219562896</v>
+        <v>3767.744219562895</v>
       </c>
       <c r="W35" t="n">
-        <v>3407.387820744697</v>
+        <v>3407.387820744696</v>
       </c>
       <c r="X35" t="n">
         <v>3031.702772793898</v>
       </c>
       <c r="Y35" t="n">
-        <v>2662.400453630243</v>
+        <v>2662.400453630242</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H36" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="I36" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J36" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="K36" t="n">
-        <v>91.29483210793288</v>
+        <v>681.7797586762724</v>
       </c>
       <c r="L36" t="n">
-        <v>91.29483210793288</v>
+        <v>681.7797586762724</v>
       </c>
       <c r="M36" t="n">
-        <v>91.29483210793288</v>
+        <v>1737.766296652318</v>
       </c>
       <c r="N36" t="n">
-        <v>91.29483210793288</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="O36" t="n">
-        <v>637.6199587024621</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="P36" t="n">
-        <v>1353.81767574096</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="Q36" t="n">
-        <v>1817.963152603739</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="R36" t="n">
         <v>1899.982462688443</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>922.2312984619903</v>
+        <v>922.2312984619905</v>
       </c>
       <c r="C37" t="n">
-        <v>786.2936862223604</v>
+        <v>786.2936862223607</v>
       </c>
       <c r="D37" t="n">
-        <v>659.0118642305853</v>
+        <v>659.0118642305856</v>
       </c>
       <c r="E37" t="n">
-        <v>528.838609264893</v>
+        <v>528.8386092648932</v>
       </c>
       <c r="F37" t="n">
-        <v>393.0117859209079</v>
+        <v>393.0117859209078</v>
       </c>
       <c r="G37" t="n">
-        <v>262.7897670965942</v>
+        <v>262.7897670965941</v>
       </c>
       <c r="H37" t="n">
         <v>155.0284494862027</v>
       </c>
       <c r="I37" t="n">
-        <v>91.29483210793286</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J37" t="n">
         <v>184.1040156910041</v>
@@ -7099,7 +7099,7 @@
         <v>445.9494722557545</v>
       </c>
       <c r="L37" t="n">
-        <v>835.9566489090884</v>
+        <v>835.9566489090885</v>
       </c>
       <c r="M37" t="n">
         <v>1262.460299238252</v>
@@ -7114,7 +7114,7 @@
         <v>2391.932716792692</v>
       </c>
       <c r="Q37" t="n">
-        <v>2554.250702392366</v>
+        <v>2554.250702392367</v>
       </c>
       <c r="R37" t="n">
         <v>2543.247039960994</v>
@@ -7123,7 +7123,7 @@
         <v>2409.146943361583</v>
       </c>
       <c r="T37" t="n">
-        <v>2201.842546468937</v>
+        <v>2201.842546468938</v>
       </c>
       <c r="U37" t="n">
         <v>1957.693048850696</v>
@@ -7135,7 +7135,7 @@
         <v>1473.199079394146</v>
       </c>
       <c r="X37" t="n">
-        <v>1266.670133721405</v>
+        <v>1266.670133721406</v>
       </c>
       <c r="Y37" t="n">
         <v>1076.362316292602</v>
@@ -7160,7 +7160,7 @@
         <v>1110.521602210687</v>
       </c>
       <c r="F38" t="n">
-        <v>721.4323712815412</v>
+        <v>721.4323712815411</v>
       </c>
       <c r="G38" t="n">
         <v>353.1282597524439</v>
@@ -7178,19 +7178,19 @@
         <v>1169.406598900327</v>
       </c>
       <c r="L38" t="n">
-        <v>1169.406598900327</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="M38" t="n">
-        <v>1917.5102827193</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="N38" t="n">
-        <v>2893.761341206</v>
+        <v>2437.675861701817</v>
       </c>
       <c r="O38" t="n">
-        <v>3738.905991356813</v>
+        <v>3282.820511852629</v>
       </c>
       <c r="P38" t="n">
-        <v>4447.18527051474</v>
+        <v>3991.099791010557</v>
       </c>
       <c r="Q38" t="n">
         <v>4447.18527051474</v>
@@ -7199,7 +7199,7 @@
         <v>4564.741605396643</v>
       </c>
       <c r="S38" t="n">
-        <v>4496.409262151237</v>
+        <v>4496.409262151238</v>
       </c>
       <c r="T38" t="n">
         <v>4311.518642077325</v>
@@ -7208,13 +7208,13 @@
         <v>4089.198683555192</v>
       </c>
       <c r="V38" t="n">
-        <v>3767.744219562896</v>
+        <v>3767.744219562895</v>
       </c>
       <c r="W38" t="n">
         <v>3407.387820744696</v>
       </c>
       <c r="X38" t="n">
-        <v>3031.702772793897</v>
+        <v>3031.702772793898</v>
       </c>
       <c r="Y38" t="n">
         <v>2662.400453630242</v>
@@ -7260,19 +7260,19 @@
         <v>91.29483210793285</v>
       </c>
       <c r="M39" t="n">
-        <v>91.29483210793285</v>
+        <v>1147.281370083978</v>
       </c>
       <c r="N39" t="n">
-        <v>91.29483210793285</v>
+        <v>1147.281370083978</v>
       </c>
       <c r="O39" t="n">
-        <v>637.6199587024621</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="P39" t="n">
-        <v>1353.81767574096</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="Q39" t="n">
-        <v>1817.963152603739</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="R39" t="n">
         <v>1899.982462688443</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>922.2312984619905</v>
+        <v>922.23129846199</v>
       </c>
       <c r="C40" t="n">
-        <v>786.2936862223606</v>
+        <v>786.2936862223603</v>
       </c>
       <c r="D40" t="n">
-        <v>659.0118642305855</v>
+        <v>659.0118642305852</v>
       </c>
       <c r="E40" t="n">
-        <v>528.8386092648932</v>
+        <v>528.8386092648929</v>
       </c>
       <c r="F40" t="n">
-        <v>393.0117859209078</v>
+        <v>393.0117859209074</v>
       </c>
       <c r="G40" t="n">
-        <v>262.7897670965941</v>
+        <v>262.7897670965937</v>
       </c>
       <c r="H40" t="n">
         <v>155.0284494862027</v>
@@ -7336,46 +7336,46 @@
         <v>445.9494722557544</v>
       </c>
       <c r="L40" t="n">
-        <v>835.9566489090884</v>
+        <v>835.9566489090882</v>
       </c>
       <c r="M40" t="n">
         <v>1262.460299238252</v>
       </c>
       <c r="N40" t="n">
-        <v>1675.269665473202</v>
+        <v>1675.269665473201</v>
       </c>
       <c r="O40" t="n">
-        <v>2066.015649511878</v>
+        <v>2066.015649511877</v>
       </c>
       <c r="P40" t="n">
-        <v>2391.932716792692</v>
+        <v>2391.932716792691</v>
       </c>
       <c r="Q40" t="n">
-        <v>2554.250702392367</v>
+        <v>2554.250702392366</v>
       </c>
       <c r="R40" t="n">
-        <v>2543.247039960994</v>
+        <v>2543.247039960993</v>
       </c>
       <c r="S40" t="n">
         <v>2409.146943361583</v>
       </c>
       <c r="T40" t="n">
-        <v>2201.842546468938</v>
+        <v>2201.842546468937</v>
       </c>
       <c r="U40" t="n">
-        <v>1957.693048850696</v>
+        <v>1957.693048850695</v>
       </c>
       <c r="V40" t="n">
-        <v>1712.016532340179</v>
+        <v>1712.016532340178</v>
       </c>
       <c r="W40" t="n">
-        <v>1473.199079394147</v>
+        <v>1473.199079394146</v>
       </c>
       <c r="X40" t="n">
-        <v>1266.670133721406</v>
+        <v>1266.670133721405</v>
       </c>
       <c r="Y40" t="n">
-        <v>1076.362316292602</v>
+        <v>1076.362316292601</v>
       </c>
     </row>
     <row r="41">
@@ -7388,16 +7388,16 @@
         <v>2278.587040220166</v>
       </c>
       <c r="C41" t="n">
-        <v>1887.721261114921</v>
+        <v>1887.72126111492</v>
       </c>
       <c r="D41" t="n">
         <v>1500.463591181375</v>
       </c>
       <c r="E41" t="n">
-        <v>1110.521602210687</v>
+        <v>1110.521602210686</v>
       </c>
       <c r="F41" t="n">
-        <v>721.4323712815411</v>
+        <v>721.4323712815408</v>
       </c>
       <c r="G41" t="n">
         <v>353.1282597524439</v>
@@ -7445,7 +7445,7 @@
         <v>4089.198683555191</v>
       </c>
       <c r="V41" t="n">
-        <v>3767.744219562896</v>
+        <v>3767.744219562895</v>
       </c>
       <c r="W41" t="n">
         <v>3407.387820744696</v>
@@ -7485,31 +7485,31 @@
         <v>91.29483210793285</v>
       </c>
       <c r="I42" t="n">
-        <v>91.29483210793285</v>
+        <v>98.74147506984468</v>
       </c>
       <c r="J42" t="n">
-        <v>91.29483210793285</v>
+        <v>370.4389643494358</v>
       </c>
       <c r="K42" t="n">
-        <v>91.29483210793285</v>
+        <v>370.4389643494358</v>
       </c>
       <c r="L42" t="n">
-        <v>91.29483210793285</v>
+        <v>370.4389643494358</v>
       </c>
       <c r="M42" t="n">
-        <v>91.29483210793285</v>
+        <v>370.4389643494358</v>
       </c>
       <c r="N42" t="n">
-        <v>91.29483210793285</v>
+        <v>370.4389643494358</v>
       </c>
       <c r="O42" t="n">
-        <v>637.6199587024621</v>
+        <v>1259.920242360907</v>
       </c>
       <c r="P42" t="n">
-        <v>1353.81767574096</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="Q42" t="n">
-        <v>1817.963152603739</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="R42" t="n">
         <v>1899.982462688443</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>922.2312984619904</v>
+        <v>922.2312984619905</v>
       </c>
       <c r="C43" t="n">
-        <v>786.2936862223605</v>
+        <v>786.2936862223607</v>
       </c>
       <c r="D43" t="n">
-        <v>659.0118642305854</v>
+        <v>659.0118642305855</v>
       </c>
       <c r="E43" t="n">
-        <v>528.8386092648931</v>
+        <v>528.8386092648932</v>
       </c>
       <c r="F43" t="n">
-        <v>393.0117859209076</v>
+        <v>393.0117859209078</v>
       </c>
       <c r="G43" t="n">
-        <v>262.789767096594</v>
+        <v>262.7897670965941</v>
       </c>
       <c r="H43" t="n">
         <v>155.0284494862027</v>
@@ -7567,13 +7567,13 @@
         <v>91.29483210793285</v>
       </c>
       <c r="J43" t="n">
-        <v>184.104015691004</v>
+        <v>184.1040156910041</v>
       </c>
       <c r="K43" t="n">
-        <v>445.9494722557544</v>
+        <v>445.9494722557545</v>
       </c>
       <c r="L43" t="n">
-        <v>835.9566489090884</v>
+        <v>835.9566489090885</v>
       </c>
       <c r="M43" t="n">
         <v>1262.460299238252</v>
@@ -7591,10 +7591,10 @@
         <v>2554.250702392367</v>
       </c>
       <c r="R43" t="n">
-        <v>2543.247039960994</v>
+        <v>2543.247039960995</v>
       </c>
       <c r="S43" t="n">
-        <v>2409.146943361583</v>
+        <v>2409.146943361584</v>
       </c>
       <c r="T43" t="n">
         <v>2201.842546468938</v>
@@ -7603,7 +7603,7 @@
         <v>1957.693048850696</v>
       </c>
       <c r="V43" t="n">
-        <v>1712.016532340179</v>
+        <v>1712.01653234018</v>
       </c>
       <c r="W43" t="n">
         <v>1473.199079394147</v>
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2278.587040220166</v>
+        <v>2278.587040220165</v>
       </c>
       <c r="C44" t="n">
-        <v>1887.72126111492</v>
+        <v>1887.721261114919</v>
       </c>
       <c r="D44" t="n">
-        <v>1500.463591181375</v>
+        <v>1500.463591181373</v>
       </c>
       <c r="E44" t="n">
-        <v>1110.521602210686</v>
+        <v>1110.521602210685</v>
       </c>
       <c r="F44" t="n">
-        <v>721.4323712815408</v>
+        <v>721.4323712815396</v>
       </c>
       <c r="G44" t="n">
-        <v>353.1282597524439</v>
+        <v>353.1282597524424</v>
       </c>
       <c r="H44" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793131</v>
       </c>
       <c r="I44" t="n">
         <v>91.29483210793285</v>
@@ -7652,22 +7652,22 @@
         <v>1169.406598900327</v>
       </c>
       <c r="L44" t="n">
-        <v>2035.066617601202</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="M44" t="n">
-        <v>2035.066617601202</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="N44" t="n">
-        <v>3011.317676087903</v>
+        <v>2437.675861701817</v>
       </c>
       <c r="O44" t="n">
-        <v>3856.462326238715</v>
+        <v>3282.820511852629</v>
       </c>
       <c r="P44" t="n">
-        <v>4564.741605396643</v>
+        <v>3991.099791010557</v>
       </c>
       <c r="Q44" t="n">
-        <v>4564.741605396643</v>
+        <v>4447.18527051474</v>
       </c>
       <c r="R44" t="n">
         <v>4564.741605396643</v>
@@ -7682,16 +7682,16 @@
         <v>4089.198683555191</v>
       </c>
       <c r="V44" t="n">
-        <v>3767.744219562895</v>
+        <v>3767.744219562894</v>
       </c>
       <c r="W44" t="n">
-        <v>3407.387820744696</v>
+        <v>3407.387820744695</v>
       </c>
       <c r="X44" t="n">
-        <v>3031.702772793898</v>
+        <v>3031.702772793897</v>
       </c>
       <c r="Y44" t="n">
-        <v>2662.400453630242</v>
+        <v>2662.400453630241</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7722,25 @@
         <v>91.29483210793285</v>
       </c>
       <c r="I45" t="n">
-        <v>91.29483210793285</v>
+        <v>98.74147506984468</v>
       </c>
       <c r="J45" t="n">
-        <v>91.29483210793285</v>
+        <v>370.4389643494358</v>
       </c>
       <c r="K45" t="n">
-        <v>91.29483210793285</v>
+        <v>370.4389643494358</v>
       </c>
       <c r="L45" t="n">
-        <v>91.29483210793285</v>
+        <v>370.4389643494358</v>
       </c>
       <c r="M45" t="n">
-        <v>91.29483210793285</v>
+        <v>370.4389643494358</v>
       </c>
       <c r="N45" t="n">
-        <v>1180.609778580803</v>
+        <v>370.4389643494358</v>
       </c>
       <c r="O45" t="n">
-        <v>1899.982462688443</v>
+        <v>1259.920242360907</v>
       </c>
       <c r="P45" t="n">
         <v>1899.982462688443</v>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>63.88091092762902</v>
+        <v>100.550151642214</v>
       </c>
       <c r="L2" t="n">
-        <v>65.29234003482364</v>
+        <v>553.973366423299</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
@@ -7991,16 +7991,16 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>553.0522833467003</v>
       </c>
       <c r="P2" t="n">
-        <v>65.69167194305098</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>64.24098473741773</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,34 +8052,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>21.70370902132395</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>538.1764107049057</v>
       </c>
       <c r="M3" t="n">
-        <v>51.21309064514766</v>
+        <v>538.7581045030041</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>537.0043522042178</v>
       </c>
       <c r="O3" t="n">
-        <v>51.28819985504191</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>48.75113880702937</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>51.78922952696383</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8137,25 +8137,25 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>49.08096458553168</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>48.89905749790193</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>22.57543989148582</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
-        <v>48.86521110842008</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>50.61549763124414</v>
+        <v>278.962641573417</v>
       </c>
       <c r="P4" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>322.3281801399289</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>328.6728214491517</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>319.3855875049716</v>
+        <v>572.0660045132436</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>330.1878434887884</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
         <v>37.3909593560241</v>
@@ -8292,16 +8292,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>239.2071561133506</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>185.9167539104601</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
@@ -8310,10 +8310,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>314.679061859171</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>315.6552589433209</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8374,22 +8374,22 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
-        <v>117.2939764134102</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
-        <v>313.6571216299428</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
-        <v>315.4074081527668</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2890213123288</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
         <v>152.9025226039384</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>354.1411744239327</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>497.1645065551435</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>499.7119481929572</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
@@ -8465,13 +8465,13 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>452.5855512828693</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8529,31 +8529,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>484.4966862726622</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>461.4026962257055</v>
       </c>
       <c r="O9" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>382.6567356502052</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8623,10 +8623,10 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O10" t="n">
-        <v>299.5718579722078</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P10" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
         <v>152.9025226039384</v>
@@ -8696,22 +8696,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>450.6171294222696</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>54.56363491934414</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>20.61111433333334</v>
@@ -8772,25 +8772,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>218.8803944444793</v>
       </c>
       <c r="O12" t="n">
-        <v>453.1961680556779</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,19 +8924,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>630.9692526488913</v>
       </c>
       <c r="L14" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>134.8598018422981</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>295.0530226965566</v>
@@ -9018,13 +9018,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>248.2838641991609</v>
       </c>
       <c r="P15" t="n">
-        <v>509.0028996591719</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9170,10 +9170,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>611.4063736406736</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>37.27962283444602</v>
+        <v>924.179015540608</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9182,10 +9182,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,13 +9237,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>618.848654609434</v>
+        <v>467.0745387486232</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
@@ -9252,16 +9252,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>509.0028996591719</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9407,10 +9407,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>150.7139701010946</v>
+        <v>56.96224792397903</v>
       </c>
       <c r="N20" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9474,28 +9474,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>867.7664080100944</v>
+        <v>25.7221241578072</v>
       </c>
       <c r="M21" t="n">
-        <v>126.389471106026</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9644,10 +9644,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>37.43126289943181</v>
+        <v>1043.074428213578</v>
       </c>
       <c r="N23" t="n">
-        <v>395.4385419568376</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9659,7 +9659,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,16 +9720,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1003.048909524252</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>749.810964578424</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
@@ -9875,16 +9875,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>705.1634862205228</v>
       </c>
       <c r="M26" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>924.1790155406098</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
@@ -9896,7 +9896,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,25 +9948,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>126.3894711060262</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
@@ -10112,16 +10112,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>705.1634862205228</v>
       </c>
       <c r="M29" t="n">
-        <v>924.3306556055956</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
@@ -10133,7 +10133,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,7 +10194,7 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M30" t="n">
         <v>23.09678051232798</v>
@@ -10203,16 +10203,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>575.0154519389184</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>105.0107851302144</v>
       </c>
       <c r="Q30" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>379.3444866548641</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10422,22 +10422,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
         <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
-        <v>126.389471106026</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>1003.048909524252</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10592,10 +10592,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>379.4961267198499</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>37.27962283444602</v>
+        <v>379.3444866548631</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10665,28 +10665,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>185.1977413813447</v>
       </c>
       <c r="O36" t="n">
-        <v>575.0154519389184</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,13 +10826,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>793.0915495852621</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>379.3444866548631</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10841,7 +10841,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
         <v>153.7764225027789</v>
@@ -10908,22 +10908,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>575.0154519389184</v>
+        <v>783.476023666126</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11133,10 +11133,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
         <v>22.39923383333334</v>
@@ -11151,16 +11151,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>575.0154519389184</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P42" t="n">
-        <v>745.2028786174529</v>
+        <v>668.2983364851673</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,13 +11300,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>912.7161017264355</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>379.3444866548631</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11315,10 +11315,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,10 +11370,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
@@ -11385,13 +11385,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>749.810964578424</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>668.2983364851673</v>
       </c>
       <c r="Q45" t="n">
         <v>22.7470382889785</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>172.2155341347409</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>184.1684127018497</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>26.86140143470158</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>71.98949189919225</v>
       </c>
     </row>
     <row r="14">
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>356.3839468365902</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>7.898449381637789</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>26.86140143470101</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>356.3839468365897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>26.8614014347017</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>71.98949189919219</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>260.341792196742</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.77571864162746</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>27.26643599822082</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>26.86140143470124</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>71.98949189919216</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>26.86140143470113</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>71.98949189919212</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>127.1545480585884</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>71.98949189919232</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>71.98949189919188</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>178.1668213893226</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>88.67339494150444</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>112.8978668976242</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>230.0407699530306</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>4.831690603168681e-13</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25685,7 +25685,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>513801.7167531588</v>
+        <v>534257.2531569392</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>525282.452073589</v>
+        <v>535505.3242199315</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>532587.8430750936</v>
+        <v>535505.3242199315</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>521872.0514414912</v>
+        <v>534724.9429392185</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>521872.0514414913</v>
+        <v>534724.9429392185</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>521872.0514414912</v>
+        <v>534724.9429392185</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>521872.0514414912</v>
+        <v>534724.9429392185</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>548865.0046462961</v>
+        <v>534724.9429392186</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>549333.0125662721</v>
+        <v>539780.3187869089</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>549333.0125662719</v>
+        <v>549333.0125662721</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>509637.3345097679</v>
+        <v>509637.3345097677</v>
       </c>
       <c r="C2" t="n">
         <v>509637.3345097678</v>
       </c>
       <c r="D2" t="n">
+        <v>509637.3345097678</v>
+      </c>
+      <c r="E2" t="n">
+        <v>491776.6027452663</v>
+      </c>
+      <c r="F2" t="n">
+        <v>491776.6027452662</v>
+      </c>
+      <c r="G2" t="n">
+        <v>491776.6027452665</v>
+      </c>
+      <c r="H2" t="n">
+        <v>491776.6027452665</v>
+      </c>
+      <c r="I2" t="n">
+        <v>491776.6027452664</v>
+      </c>
+      <c r="J2" t="n">
+        <v>491776.6027452664</v>
+      </c>
+      <c r="K2" t="n">
+        <v>491776.6027452665</v>
+      </c>
+      <c r="L2" t="n">
+        <v>496831.9785929565</v>
+      </c>
+      <c r="M2" t="n">
+        <v>509637.3345097675</v>
+      </c>
+      <c r="N2" t="n">
+        <v>509637.3345097674</v>
+      </c>
+      <c r="O2" t="n">
+        <v>509637.3345097675</v>
+      </c>
+      <c r="P2" t="n">
         <v>509637.3345097676</v>
-      </c>
-      <c r="E2" t="n">
-        <v>484251.1031824701</v>
-      </c>
-      <c r="F2" t="n">
-        <v>484251.10318247</v>
-      </c>
-      <c r="G2" t="n">
-        <v>484251.1031824702</v>
-      </c>
-      <c r="H2" t="n">
-        <v>484251.1031824703</v>
-      </c>
-      <c r="I2" t="n">
-        <v>509073.2450796386</v>
-      </c>
-      <c r="J2" t="n">
-        <v>491776.6027452663</v>
-      </c>
-      <c r="K2" t="n">
-        <v>491776.6027452664</v>
-      </c>
-      <c r="L2" t="n">
-        <v>509637.3345097674</v>
-      </c>
-      <c r="M2" t="n">
-        <v>509637.3345097676</v>
-      </c>
-      <c r="N2" t="n">
-        <v>509637.3345097675</v>
-      </c>
-      <c r="O2" t="n">
-        <v>509637.3345097674</v>
-      </c>
-      <c r="P2" t="n">
-        <v>509637.3345097675</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9422.422200640931</v>
+        <v>172809.9698797273</v>
       </c>
       <c r="C3" t="n">
-        <v>85546.50417943897</v>
+        <v>13105.8434701988</v>
       </c>
       <c r="D3" t="n">
-        <v>52338.57214447424</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>204401.7134596185</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>24420.21632826551</v>
+        <v>1.209268702950794e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>42294.81965085294</v>
+        <v>134919.6914542165</v>
       </c>
       <c r="K3" t="n">
-        <v>68148.96442710326</v>
+        <v>10440.5161731019</v>
       </c>
       <c r="L3" t="n">
-        <v>36358.46410370084</v>
+        <v>8077.990108497879</v>
       </c>
       <c r="M3" t="n">
-        <v>147533.1209819145</v>
+        <v>166235.4618077714</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>305120.5826568028</v>
+        <v>173411.799212844</v>
       </c>
       <c r="C4" t="n">
-        <v>231198.6061196099</v>
+        <v>165375.7390424566</v>
       </c>
       <c r="D4" t="n">
-        <v>184160.7703768716</v>
+        <v>165375.7390424566</v>
       </c>
       <c r="E4" t="n">
-        <v>73226.69586079581</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="F4" t="n">
-        <v>73226.69586079579</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="G4" t="n">
-        <v>73226.69586079581</v>
+        <v>43748.40045389559</v>
       </c>
       <c r="H4" t="n">
-        <v>73226.69586079579</v>
+        <v>43748.40045389559</v>
       </c>
       <c r="I4" t="n">
-        <v>75440.92339458494</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="J4" t="n">
-        <v>43748.40045389557</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="K4" t="n">
         <v>43748.40045389556</v>
       </c>
       <c r="L4" t="n">
-        <v>76430.3115629073</v>
+        <v>47070.97709963577</v>
       </c>
       <c r="M4" t="n">
-        <v>76430.3115629073</v>
+        <v>76430.31156290733</v>
       </c>
       <c r="N4" t="n">
-        <v>76430.3115629073</v>
+        <v>76430.31156290727</v>
       </c>
       <c r="O4" t="n">
         <v>76430.31156290729</v>
       </c>
       <c r="P4" t="n">
-        <v>76430.31156290729</v>
+        <v>76430.31156290736</v>
       </c>
     </row>
     <row r="5">
@@ -26467,28 +26467,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35337.07165607544</v>
+        <v>64979.80849863311</v>
       </c>
       <c r="C5" t="n">
-        <v>51436.41981578401</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>66952.18391589138</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="F5" t="n">
-        <v>66952.18391589138</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="G5" t="n">
-        <v>66952.18391589138</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="H5" t="n">
-        <v>66952.18391589138</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="I5" t="n">
-        <v>72535.6058824098</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
         <v>77750.06218842969</v>
@@ -26497,10 +26497,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>72383.20046482542</v>
+        <v>78598.94787646882</v>
       </c>
       <c r="M5" t="n">
-        <v>72383.20046482542</v>
+        <v>72383.20046482541</v>
       </c>
       <c r="N5" t="n">
         <v>72383.20046482541</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>159757.2579962487</v>
+        <v>98435.75691856326</v>
       </c>
       <c r="C6" t="n">
-        <v>141455.804394935</v>
+        <v>263709.5009596843</v>
       </c>
       <c r="D6" t="n">
-        <v>211457.2777181935</v>
+        <v>276815.3444298831</v>
       </c>
       <c r="E6" t="n">
-        <v>139670.5099461644</v>
+        <v>154487.7528841164</v>
       </c>
       <c r="F6" t="n">
-        <v>344072.2234057828</v>
+        <v>370227.1094407567</v>
       </c>
       <c r="G6" t="n">
-        <v>344072.223405783</v>
+        <v>370227.1094407569</v>
       </c>
       <c r="H6" t="n">
-        <v>344072.2234057831</v>
+        <v>370227.1094407569</v>
       </c>
       <c r="I6" t="n">
-        <v>336676.4994743784</v>
+        <v>370227.1094407567</v>
       </c>
       <c r="J6" t="n">
-        <v>327983.3204520881</v>
+        <v>235307.4179865404</v>
       </c>
       <c r="K6" t="n">
-        <v>302129.1756758378</v>
+        <v>359786.5932676551</v>
       </c>
       <c r="L6" t="n">
-        <v>324465.3583783339</v>
+        <v>363047.4767771631</v>
       </c>
       <c r="M6" t="n">
-        <v>213290.7015001204</v>
+        <v>194588.3606742633</v>
       </c>
       <c r="N6" t="n">
         <v>360823.8224820348</v>
       </c>
       <c r="O6" t="n">
-        <v>360823.8224820347</v>
+        <v>360823.8224820348</v>
       </c>
       <c r="P6" t="n">
         <v>360823.8224820348</v>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,10 +26713,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>35.67460137263961</v>
+        <v>10.09748763562235</v>
       </c>
       <c r="M2" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="N2" t="n">
         <v>35.67460137263961</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.11631013281968</v>
+        <v>515.6613239906761</v>
       </c>
       <c r="C4" t="n">
-        <v>292.9082206543424</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>1053.417373304653</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="F4" t="n">
-        <v>1053.417373304653</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="G4" t="n">
-        <v>1053.417373304653</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="H4" t="n">
-        <v>1053.417373304653</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="I4" t="n">
-        <v>1145.24997143818</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="J4" t="n">
         <v>1278.783917572857</v>
@@ -26817,7 +26817,7 @@
         <v>1278.783917572857</v>
       </c>
       <c r="L4" t="n">
-        <v>1141.185401349161</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
         <v>1141.185401349161</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>35.67460137263961</v>
+        <v>10.09748763562235</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>25.57711373701729</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.11631013281968</v>
+        <v>515.6613239906761</v>
       </c>
       <c r="C4" t="n">
-        <v>264.7919105215227</v>
+        <v>40.56648912491801</v>
       </c>
       <c r="D4" t="n">
-        <v>168.4916851059918</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>592.0174675443191</v>
+        <v>722.5561044572622</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>91.83259813352652</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>161.6502562674968</v>
+        <v>515.6613239906761</v>
       </c>
       <c r="K4" t="n">
-        <v>264.7919105215227</v>
+        <v>40.56648912491801</v>
       </c>
       <c r="L4" t="n">
-        <v>30.8931688822959</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>592.0174675443191</v>
+        <v>584.9575882335661</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>28.11631013281968</v>
+        <v>515.6613239906761</v>
       </c>
       <c r="K4" t="n">
-        <v>264.7919105215227</v>
+        <v>40.56648912491801</v>
       </c>
       <c r="L4" t="n">
-        <v>168.4916851059918</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>592.0174675443191</v>
+        <v>722.5561044572622</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>351.8402801391605</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
@@ -27439,10 +27439,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27455,25 +27455,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.52142919304239</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>91.56599848268269</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>64.5930618811052</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>93.11323406457203</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>52.84233230531351</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27506,25 +27506,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>80.51100496435802</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>140.4611363452985</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>182.9205141195597</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>174.8070973393067</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>194.556163395115</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>138.2959597602405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>142.1365273570535</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.3783105181976</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>136.4780898758905</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>243.9875696563924</v>
+        <v>165.8610737370768</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>255.1379248378566</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>129.7235020324905</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>331.3947386960821</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27628,7 +27628,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>107.3874511321035</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -27673,16 +27673,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>114.6945781895878</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27695,16 +27695,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>93.60562040241</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27752,13 +27752,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>202.9234074721264</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27786,13 +27786,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>132.5092198096456</v>
       </c>
       <c r="V7" t="n">
-        <v>62.1705222658658</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>353.0609246327053</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>10.45284613863731</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28020,13 +28020,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>107.5634614771281</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>59.64236734312206</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396352</v>
+        <v>9.379164112033322e-13</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>34.54790254396352</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>35.67460137263961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.67460137263961</v>
+        <v>10.09748763562235</v>
       </c>
       <c r="C34" t="n">
-        <v>35.67460137263961</v>
+        <v>10.09748763562235</v>
       </c>
       <c r="D34" t="n">
-        <v>35.67460137263961</v>
+        <v>10.09748763562235</v>
       </c>
       <c r="E34" t="n">
-        <v>35.67460137263961</v>
+        <v>10.09748763562235</v>
       </c>
       <c r="F34" t="n">
-        <v>35.67460137263961</v>
+        <v>10.09748763562235</v>
       </c>
       <c r="G34" t="n">
-        <v>35.67460137263961</v>
+        <v>10.09748763562235</v>
       </c>
       <c r="H34" t="n">
-        <v>35.67460137263961</v>
+        <v>10.09748763562235</v>
       </c>
       <c r="I34" t="n">
-        <v>35.67460137263961</v>
+        <v>10.09748763562235</v>
       </c>
       <c r="J34" t="n">
-        <v>35.67460137263961</v>
+        <v>10.09748763562235</v>
       </c>
       <c r="K34" t="n">
-        <v>35.67460137263961</v>
+        <v>10.09748763562235</v>
       </c>
       <c r="L34" t="n">
-        <v>35.67460137263961</v>
+        <v>10.09748763562235</v>
       </c>
       <c r="M34" t="n">
-        <v>35.67460137263961</v>
+        <v>10.09748763562235</v>
       </c>
       <c r="N34" t="n">
-        <v>35.67460137263961</v>
+        <v>10.09748763562235</v>
       </c>
       <c r="O34" t="n">
-        <v>35.67460137263961</v>
+        <v>10.09748763562235</v>
       </c>
       <c r="P34" t="n">
-        <v>35.67460137263961</v>
+        <v>10.09748763562235</v>
       </c>
       <c r="Q34" t="n">
-        <v>35.67460137263961</v>
+        <v>10.09748763562235</v>
       </c>
       <c r="R34" t="n">
-        <v>35.67460137263961</v>
+        <v>10.09748763562235</v>
       </c>
       <c r="S34" t="n">
-        <v>35.67460137263961</v>
+        <v>10.09748763562235</v>
       </c>
       <c r="T34" t="n">
-        <v>35.67460137263961</v>
+        <v>10.09748763562235</v>
       </c>
       <c r="U34" t="n">
-        <v>35.67460137263961</v>
+        <v>10.09748763562235</v>
       </c>
       <c r="V34" t="n">
-        <v>35.67460137263961</v>
+        <v>10.09748763562235</v>
       </c>
       <c r="W34" t="n">
-        <v>35.67460137263961</v>
+        <v>10.09748763562235</v>
       </c>
       <c r="X34" t="n">
-        <v>35.67460137263961</v>
+        <v>10.09748763562235</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.67460137263961</v>
+        <v>10.09748763562235</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="C35" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="D35" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="E35" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="F35" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="G35" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="H35" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="I35" t="n">
         <v>34.5479025439635</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="T35" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="U35" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137264041</v>
       </c>
       <c r="V35" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="W35" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="X35" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="Y35" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263964</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="C37" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="D37" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="E37" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="F37" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="G37" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="H37" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="I37" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="J37" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="K37" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="L37" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="M37" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="N37" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="O37" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="P37" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="R37" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="S37" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="T37" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="U37" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="V37" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="W37" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="X37" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.67460137263961</v>
+        <v>35.67460137263964</v>
       </c>
     </row>
     <row r="38">
@@ -30715,7 +30715,7 @@
         <v>35.67460137263961</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396505</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>28.11631013281968</v>
+        <v>64.78555084740465</v>
       </c>
       <c r="L2" t="n">
-        <v>26.98029760220071</v>
+        <v>515.6613239906761</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,16 +34711,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>515.6613239906761</v>
       </c>
       <c r="P2" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>28.11631013281968</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,34 +34772,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5.531322271323946</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>515.6613239906761</v>
       </c>
       <c r="M3" t="n">
-        <v>28.11631013281968</v>
+        <v>515.6613239906761</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>515.6613239906761</v>
       </c>
       <c r="O3" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>26.98029760220071</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>28.11631013281968</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>26.98029760220071</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
-        <v>28.11631013281968</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>28.11631013281968</v>
+        <v>256.4634540749926</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>292.9082206543424</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>292.9082206543424</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>281.0735450723486</v>
+        <v>533.7539620806207</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>292.9082206543424</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>216.692069399121</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>162.8199733981321</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>292.9082206543424</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>292.9082206543424</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35094,22 +35094,22 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
-        <v>94.71853652192436</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
-        <v>292.9082206543424</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
-        <v>292.9082206543424</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>292.9082206543424</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
         <v>128.2829598391535</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>324.7212149383462</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>415.010189472638</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>440.0596680121639</v>
       </c>
       <c r="O9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>359.9096973612267</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35343,10 +35343,10 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O10" t="n">
-        <v>277.0726704737833</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
         <v>128.2829598391535</v>
@@ -35416,22 +35416,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>413.2261700662455</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>19.53098502454767</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>197.5373662309377</v>
       </c>
       <c r="O12" t="n">
-        <v>430.0242783334557</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.61995125523424</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K13" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L13" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M13" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N13" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O13" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P13" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q13" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>595.2046518540819</v>
       </c>
       <c r="L14" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>97.4285389428663</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>274.4419083632233</v>
@@ -35738,13 +35738,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>225.1119744769387</v>
       </c>
       <c r="P15" t="n">
-        <v>487.2320584543432</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.61995125523424</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K16" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L16" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M16" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N16" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O16" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P16" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q16" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,10 +35890,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>573.9751107412418</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>886.899392706162</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35902,10 +35902,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>596.4494207761006</v>
+        <v>444.6753049152899</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35972,16 +35972,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>487.2320584543432</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.61995125523424</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L19" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M19" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N19" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O19" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P19" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q19" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36127,10 +36127,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>113.2827072016628</v>
+        <v>19.53098502454721</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36194,28 +36194,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>845.2513212958648</v>
+        <v>3.207037443577648</v>
       </c>
       <c r="M21" t="n">
-        <v>103.292690593698</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.61995125523424</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K22" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L22" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M22" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N22" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O22" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P22" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q22" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36364,10 +36364,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1005.643165314146</v>
       </c>
       <c r="N23" t="n">
-        <v>358.1589191223916</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36379,7 +36379,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,16 +36440,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>981.7058813107108</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.61995125523424</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K25" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L25" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M25" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N25" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O25" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P25" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q25" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,16 +36595,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>666.8514437878999</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>886.8993927061638</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
@@ -36616,7 +36616,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,25 +36668,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>103.2926905936983</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36832,16 +36832,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>666.8514437878999</v>
       </c>
       <c r="M29" t="n">
-        <v>886.8993927061638</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
@@ -36853,7 +36853,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36923,16 +36923,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>551.8435622166962</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P30" t="n">
-        <v>723.4320374126243</v>
+        <v>83.23994392538575</v>
       </c>
       <c r="Q30" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>342.0648638204181</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37142,22 +37142,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
-        <v>103.292690593698</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>93.74665008391034</v>
+        <v>68.16953634689307</v>
       </c>
       <c r="K34" t="n">
-        <v>264.4903601664146</v>
+        <v>238.9132464293973</v>
       </c>
       <c r="L34" t="n">
-        <v>393.9466430841758</v>
+        <v>368.3695293471585</v>
       </c>
       <c r="M34" t="n">
-        <v>430.8117680092566</v>
+        <v>405.2346542722394</v>
       </c>
       <c r="N34" t="n">
-        <v>416.9791578130798</v>
+        <v>391.4020440760626</v>
       </c>
       <c r="O34" t="n">
-        <v>394.6929131703801</v>
+        <v>369.1157994333628</v>
       </c>
       <c r="P34" t="n">
-        <v>329.2091588695093</v>
+        <v>303.6320451324921</v>
       </c>
       <c r="Q34" t="n">
-        <v>163.9575612117931</v>
+        <v>138.3804474747758</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,10 +37312,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>342.0648638204181</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>342.0648638204171</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>163.8547131678031</v>
       </c>
       <c r="O36" t="n">
-        <v>551.8435622166962</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>93.74665008391034</v>
+        <v>93.74665008391037</v>
       </c>
       <c r="K37" t="n">
         <v>264.4903601664146</v>
@@ -37546,13 +37546,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>755.6602866858303</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>342.0648638204171</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37561,7 +37561,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
         <v>118.7437726079824</v>
@@ -37628,22 +37628,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>551.8435622166962</v>
+        <v>760.3041339439038</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37871,16 +37871,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>551.8435622166962</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P42" t="n">
-        <v>723.4320374126243</v>
+        <v>646.5274952803386</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1.550275059840219e-12</v>
       </c>
       <c r="J44" t="n">
         <v>366.2661200170662</v>
@@ -38020,13 +38020,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>874.4040592938126</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>342.0648638204171</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38035,10 +38035,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38105,13 +38105,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>726.6390748562018</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>646.5274952803386</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
